--- a/dtpu_configurations/only_integer8/50mhz/mxu_4x4/utilization.xlsx
+++ b/dtpu_configurations/only_integer8/50mhz/mxu_4x4/utilization.xlsx
@@ -154,16 +154,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>16.725563049316406</v>
+        <v>17.411653518676758</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>5.350574970245361</v>
+        <v>5.344827651977539</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>11.111842155456543</v>
+        <v>11.668232917785645</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>29.28571319580078</v>
+        <v>46.42856979370117</v>
       </c>
       <c r="F2" t="n" s="4">
         <v>5.454545497894287</v>
